--- a/Отчеты/Отчет изготовления тентового полотна.xlsx
+++ b/Отчеты/Отчет изготовления тентового полотна.xlsx
@@ -8,26 +8,31 @@
   </bookViews>
   <sheets>
     <sheet name="Сводный отчет" sheetId="1" r:id="rId1"/>
-    <sheet name="КДС 15х40 ПромБаза" sheetId="2" r:id="rId2"/>
-    <sheet name="027 18х24 СГРК" sheetId="3" r:id="rId3"/>
-    <sheet name="026 30х45 ГАС" sheetId="4" r:id="rId4"/>
-    <sheet name="028 15х30 СусуманЗолото" sheetId="5" r:id="rId5"/>
-    <sheet name="Recr" sheetId="6" r:id="rId6"/>
+    <sheet name="Отчет за ноя" sheetId="2" r:id="rId2"/>
+    <sheet name="049 Усть-Кара 7х24" sheetId="3" r:id="rId3"/>
+    <sheet name="048 13х20 Евраз" sheetId="4" r:id="rId4"/>
+    <sheet name="051 6х16 АВ Технология" sheetId="5" r:id="rId5"/>
+    <sheet name="052 СоюзЭнергоСтрой" sheetId="6" r:id="rId6"/>
+    <sheet name="058 Калина +" sheetId="7" r:id="rId7"/>
+    <sheet name="043 12х24 Тентовые Констр." sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
-  <si>
-    <t>Cводный отчет по участку производства тентового полотна</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="57">
+  <si>
+    <t>Сводный отчет по участку производства тентового полотна</t>
   </si>
   <si>
     <t>Текущая дата:</t>
   </si>
   <si>
-    <t>05 апр 22</t>
+    <t>01 ноя 22</t>
+  </si>
+  <si>
+    <t>Сводный отчет по участку производства тентового полотна за ноя</t>
   </si>
   <si>
     <t>План месяц, м2</t>
@@ -54,16 +59,22 @@
     <t>Готовность к отгрузке</t>
   </si>
   <si>
+    <t>051 6х16 АВ Технология</t>
+  </si>
+  <si>
+    <t>043 12х24 Тентовые Констр.</t>
+  </si>
+  <si>
     <t>Итого:</t>
   </si>
   <si>
-    <t>Производственный отчет за 2022-04-05</t>
+    <t>Производственный отчет за 2022-11-03</t>
   </si>
   <si>
     <t>Проект:</t>
   </si>
   <si>
-    <t>КДС 15х40 ПромБаза</t>
+    <t>049 Усть-Кара 7х24</t>
   </si>
   <si>
     <t>ПВХ покрытие внешнее и внутренее</t>
@@ -99,19 +110,88 @@
     <t>Общая готовности ТП</t>
   </si>
   <si>
-    <t>23 мар 22</t>
-  </si>
-  <si>
-    <t>027 18х24 СГРК</t>
-  </si>
-  <si>
-    <t>026 30х45 ГАС</t>
-  </si>
-  <si>
-    <t>028 15х30 СусуманЗолото</t>
-  </si>
-  <si>
-    <t>Recr</t>
+    <t>30 сен 22</t>
+  </si>
+  <si>
+    <t>04 окт 22</t>
+  </si>
+  <si>
+    <t>19 окт 22</t>
+  </si>
+  <si>
+    <t>20 окт 22</t>
+  </si>
+  <si>
+    <t>21 окт 22</t>
+  </si>
+  <si>
+    <t>048 13х20 Евраз</t>
+  </si>
+  <si>
+    <t>21 сен 22</t>
+  </si>
+  <si>
+    <t>22 сен 22</t>
+  </si>
+  <si>
+    <t>23 сен 22</t>
+  </si>
+  <si>
+    <t>26 сен 22</t>
+  </si>
+  <si>
+    <t>27 сен 22</t>
+  </si>
+  <si>
+    <t>28 сен 22</t>
+  </si>
+  <si>
+    <t>29 сен 22</t>
+  </si>
+  <si>
+    <t>05 окт 22</t>
+  </si>
+  <si>
+    <t>07 окт 22</t>
+  </si>
+  <si>
+    <t>052 СоюзЭнергоСтрой</t>
+  </si>
+  <si>
+    <t>10 окт 22</t>
+  </si>
+  <si>
+    <t>11 окт 22</t>
+  </si>
+  <si>
+    <t>12 окт 22</t>
+  </si>
+  <si>
+    <t>13 окт 22</t>
+  </si>
+  <si>
+    <t>14 окт 22</t>
+  </si>
+  <si>
+    <t>17 окт 22</t>
+  </si>
+  <si>
+    <t>24 окт 22</t>
+  </si>
+  <si>
+    <t>058 Калина +</t>
+  </si>
+  <si>
+    <t>26 окт 22</t>
+  </si>
+  <si>
+    <t>27 окт 22</t>
+  </si>
+  <si>
+    <t>28 окт 22</t>
+  </si>
+  <si>
+    <t>31 окт 22</t>
   </si>
 </sst>
 </file>
@@ -125,10 +205,10 @@
     <numFmt numFmtId="167" formatCode="0.00%"/>
     <numFmt numFmtId="164" formatCode="#0"/>
     <numFmt numFmtId="166" formatCode="#0.00"/>
+    <numFmt numFmtId="167" formatCode="0.00%"/>
     <numFmt numFmtId="164" formatCode="#0"/>
     <numFmt numFmtId="164" formatCode="#0"/>
     <numFmt numFmtId="165" formatCode="dd MMM yy"/>
-    <numFmt numFmtId="167" formatCode="0.00%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -208,23 +288,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,19 +600,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -551,59 +625,97 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5">
-        <f>D8/B4</f>
+        <f>D10/B4</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8">
+        <v>76.57723000000001</v>
+      </c>
       <c r="D8" s="8">
-        <f>SUM(D8:D7)</f>
+        <v>76.06938000000001</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.9934000000000001</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8">
+        <v>78.52287</v>
+      </c>
+      <c r="D9" s="8">
+        <v>78.31399999999999</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.9973000000000001</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="8">
+        <f>SUM(D8:D9)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:C10"/>
   </mergeCells>
-  <conditionalFormatting sqref="E8:F8">
+  <conditionalFormatting sqref="E8:F10">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min" val="0"/>
@@ -618,7 +730,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -626,31 +777,30 @@
   <cols>
     <col min="2" max="4" width="10.7109375" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" customWidth="1"/>
-    <col min="4" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="4" max="11" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="A1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -663,88 +813,228 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="A3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.512</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.6566</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.5164</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.6566</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.5078</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.5078</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.5078</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.5062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.512</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.6566</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.5164</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.6566</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.5078</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.5078</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.5078</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.5062</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.6168</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.856</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.6674</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.8826999999999999</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.5078</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.6095</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.6095</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.6079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.9309999999999999</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.856</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.9409000000000001</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.9255</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.8131</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.8131</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.6095</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.8146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0.2667</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.5057</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.3068</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0.2026</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0.0659</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0.0331</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0.0362</v>
+      <c r="B9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.9255</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.9148000000000001</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.9148000000000001</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.9148000000000001</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.9164999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +1043,7 @@
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="A3:K3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:K6">
+  <conditionalFormatting sqref="C5:K10">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min" val="0"/>
@@ -766,7 +1056,1049 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="11" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.2313</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.6881999999999999</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.3694</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.2231</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.2231</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.2229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.3707</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.8565999999999999</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.5019</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.5314</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.29</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.5263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.4598</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.8565999999999999</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.2127</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.6343</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.29</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.3568</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.2937</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.7142000000000001</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.1214</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.9443</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.1731</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.3313</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.8172</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.3878</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.3878</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.3938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.7142000000000001</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.1214</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.9443</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.2469</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.5759000000000001</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.7378</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.6701999999999999</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.7373999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.7142000000000001</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.1214</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.9443</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.2469</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.5759000000000001</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.7937000000000001</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.7937000000000001</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.7918000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.9895999999999999</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.9443</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.8887</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.9068999999999999</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.9276000000000001</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.9276000000000001</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0.9287000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="A3:K3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K12">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="11" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.1652</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.0296</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.2186</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.0296</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.1704</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.3463000000000001</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.1704</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.1704</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.1712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.3946</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.07389999999999999</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.3982</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.07389999999999999</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.4069</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.8268000000000001</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.4729</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.4855</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.4722000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.6286</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.2577</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.6842</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.2577</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.6964</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.6964</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.7067</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.6964</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.6286</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.2577</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.6842</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.9046999999999999</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.9240999999999999</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.9934000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.6286</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.2577</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.6842</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.9046999999999999</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.9240999999999999</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.9934000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="A3:K3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K10">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="11" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.1716</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.0408</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.1481</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.0408</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.1089</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.1096</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.1089</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.1089</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.1097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.223</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.08169999999999999</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.2629</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.08169999999999999</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.2178</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.2192</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.2178</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.1678</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.2177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.223</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.08169999999999999</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.6397999999999999</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.08169999999999999</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.4355</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.4383</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.4355</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.3856</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.4335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.6592</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.245</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.7506999999999999</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.245</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.6533</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.6575</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.6533</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.6533</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.6532000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.8096</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.2858</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.7506999999999999</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.2858</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.7622</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.7670999999999999</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.7622</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.7622</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.7622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.8096</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.9373</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.8835</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.9373</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.9373</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.9359000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.8096</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.8747</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0.9978</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.8096</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.8747</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.9978</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="A3:K3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K13">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -776,31 +2108,30 @@
   <cols>
     <col min="2" max="4" width="10.7109375" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" customWidth="1"/>
-    <col min="4" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="4" max="11" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="A1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -813,53 +2144,53 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="A3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -881,9 +2212,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -891,31 +2222,30 @@
   <cols>
     <col min="2" max="4" width="10.7109375" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" customWidth="1"/>
-    <col min="4" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="4" max="11" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="A1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -928,53 +2258,228 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="A3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.6923</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.8885999999999999</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.0552</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.4458</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.6264</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.6264</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.6262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.6923</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.8885999999999999</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.0552</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.5943000000000001</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.7265999999999999</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.7265999999999999</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.7256999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.6923</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.8885999999999999</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.0552</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.5943000000000001</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.7265999999999999</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.7265999999999999</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.7256999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.6923</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.8885999999999999</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.0552</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.5943000000000001</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.7265999999999999</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.7265999999999999</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.7256999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>25</v>
+      <c r="B9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.5943000000000001</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.9973000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -983,237 +2488,7 @@
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="A3:K3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:K5">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="4" width="10.7109375" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" customWidth="1"/>
-    <col min="4" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="A3:K3"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C5:K5">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="4" width="10.7109375" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" customWidth="1"/>
-    <col min="4" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="A3:K3"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C5:K5">
+  <conditionalFormatting sqref="C5:K10">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min" val="0"/>
